--- a/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
+++ b/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\2024_BOPTN_Hopsot\1. laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983CEF4-6244-4A5D-9B9A-534A0BA3B35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56679461-5FA9-4203-AAFD-A7768DFAF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hasil Penelitian" sheetId="1" r:id="rId1"/>
+    <sheet name="M1" sheetId="4" r:id="rId2"/>
+    <sheet name="M2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>Experiment</t>
   </si>
@@ -94,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +110,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -154,11 +162,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -206,6 +243,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D75234-9105-4A91-B6E5-84840FBBE119}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,16 +871,1173 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B99B8F-E089-4622-AC97-FA231B6CA612}">
+  <dimension ref="A5:T37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="12" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="20" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>7</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>8</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>9</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>11</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>12</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>13</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>14</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>15</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>17</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>18</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>19</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>20</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>21</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>22</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>23</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>24</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>25</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>26</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>27</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>28</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>29</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <v>30</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E4446A-C309-4FF5-A528-B60FA210E1A4}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <f>SQRT(0.0064)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="9">
+        <f>4.6531/100</f>
+        <v>4.6531000000000003E-2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <f>SQRT(0.0053)</f>
+        <v>7.2801098892805186E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <f>3.8508/100</f>
+        <v>3.8508000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D12" s="9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I12" s="9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J12" s="9">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
+++ b/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56679461-5FA9-4203-AAFD-A7768DFAF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FB03CA-3DDC-463E-BB75-2F9FF3C57F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>Experiment</t>
   </si>
@@ -87,14 +87,21 @@
   </si>
   <si>
     <t>titik panas + enso</t>
+  </si>
+  <si>
+    <t>SBi-LSTM</t>
+  </si>
+  <si>
+    <t>SBi-GRU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -245,52 +252,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,16 +866,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -888,815 +883,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B99B8F-E089-4622-AC97-FA231B6CA612}">
-  <dimension ref="A5:T37"/>
+  <dimension ref="A5:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" customWidth="1"/>
-    <col min="7" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" customWidth="1"/>
-    <col min="12" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" customWidth="1"/>
-    <col min="17" max="20" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="18" customWidth="1"/>
+    <col min="2" max="5" width="8.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="18" customWidth="1"/>
+    <col min="7" max="10" width="8.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="18" customWidth="1"/>
+    <col min="12" max="15" width="8.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" style="18" customWidth="1"/>
+    <col min="17" max="20" width="8.77734375" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="30" t="s">
+      <c r="B7" s="29">
+        <v>0.6452</v>
+      </c>
+      <c r="C7" s="29">
+        <v>246.12100000000001</v>
+      </c>
+      <c r="D7" s="29">
+        <v>689.80499999999995</v>
+      </c>
+      <c r="E7" s="29">
+        <v>167.86</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>10.6457</v>
+      </c>
+      <c r="I7" s="29">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="M7" s="29">
+        <v>257.37520000000001</v>
+      </c>
+      <c r="N7" s="29">
+        <v>711.35479999999995</v>
+      </c>
+      <c r="O7" s="29">
+        <v>153.96</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R7" s="29">
+        <v>10.6457</v>
+      </c>
+      <c r="S7" s="29">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="T7" s="29">
+        <v>0.46779999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>2</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>1</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-    </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>4</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="A11" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>5</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="A12" s="27">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="A13" s="27">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>7</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="A14" s="27">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>8</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="A15" s="27">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>9</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A16" s="27">
         <v>10</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <v>11</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <v>13</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>14</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <v>15</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>16</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <v>17</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <v>18</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <v>19</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <v>20</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
         <v>21</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
         <v>22</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
         <v>23</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
         <v>24</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
         <v>25</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
-        <v>26</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
+      <c r="A33" s="27">
+        <v>27</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>27</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
+      <c r="A34" s="27">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>28</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
+      <c r="A35" s="27">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
-        <v>29</v>
+      <c r="A36" s="28">
+        <v>30</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -1716,45 +1225,15 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
-        <v>30</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="T36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
     <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2028,16 +1507,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
+++ b/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FB03CA-3DDC-463E-BB75-2F9FF3C57F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191ADE5A-55CB-400D-B0A0-4D4AFD6F039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Penelitian" sheetId="1" r:id="rId1"/>
-    <sheet name="M1" sheetId="4" r:id="rId2"/>
-    <sheet name="M2" sheetId="5" r:id="rId3"/>
+    <sheet name="M1 - normalize" sheetId="6" r:id="rId2"/>
+    <sheet name="M1 - inverse" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>Experiment</t>
   </si>
@@ -99,9 +99,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -202,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -240,6 +239,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -252,39 +273,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,41 +612,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -743,41 +741,41 @@
       <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -866,366 +864,723 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E19D65E-E3D2-47A9-8D21-78D2EAC94EE0}">
+  <dimension ref="A5:T36"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="12" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="20" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.6452</v>
+      </c>
+      <c r="C7" s="28">
+        <v>246.12100000000001</v>
+      </c>
+      <c r="D7" s="28">
+        <v>689.80499999999995</v>
+      </c>
+      <c r="E7" s="28">
+        <v>167.86</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H7" s="28">
+        <v>10.6457</v>
+      </c>
+      <c r="I7" s="28">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="M7" s="28">
+        <v>257.37520000000001</v>
+      </c>
+      <c r="N7" s="28">
+        <v>711.35479999999995</v>
+      </c>
+      <c r="O7" s="28">
+        <v>153.96</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R7" s="28">
+        <v>10.6457</v>
+      </c>
+      <c r="S7" s="28">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0.46779999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
+        <v>30</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B99B8F-E089-4622-AC97-FA231B6CA612}">
   <dimension ref="A5:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="18" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="18" customWidth="1"/>
-    <col min="7" max="10" width="8.77734375" style="18" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="18" customWidth="1"/>
-    <col min="12" max="15" width="8.77734375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" style="18" customWidth="1"/>
-    <col min="17" max="20" width="8.77734375" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="12" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="20" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="22" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="22" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="20" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>0.6452</v>
       </c>
-      <c r="C7" s="29">
-        <v>246.12100000000001</v>
-      </c>
-      <c r="D7" s="29">
-        <v>689.80499999999995</v>
-      </c>
-      <c r="E7" s="29">
-        <v>167.86</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="C7" s="28">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H7" s="29">
-        <v>10.6457</v>
-      </c>
-      <c r="I7" s="29">
-        <v>14.077299999999999</v>
-      </c>
-      <c r="J7" s="29">
-        <v>0.46779999999999999</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29">
+      <c r="H7" s="28">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I7" s="28">
+        <v>2E-3</v>
+      </c>
+      <c r="J7" s="28">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28">
         <v>0.64490000000000003</v>
       </c>
-      <c r="M7" s="29">
-        <v>257.37520000000001</v>
-      </c>
-      <c r="N7" s="29">
-        <v>711.35479999999995</v>
-      </c>
-      <c r="O7" s="29">
-        <v>153.96</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29">
+      <c r="M7" s="28">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="N7" s="28">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="O7" s="28">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="R7" s="29">
-        <v>10.6457</v>
-      </c>
-      <c r="S7" s="29">
-        <v>14.077299999999999</v>
-      </c>
-      <c r="T7" s="29">
-        <v>0.46779999999999999</v>
+      <c r="R7" s="28">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S7" s="28">
+        <v>2E-3</v>
+      </c>
+      <c r="T7" s="28">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="A23" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+      <c r="A26" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="A29" s="19">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27">
+      <c r="A30" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27">
+      <c r="A31" s="19">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27">
+      <c r="A32" s="19">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="A33" s="19">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
+      <c r="A34" s="19">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="A35" s="19">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
+      <c r="A36" s="20">
         <v>30</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="20"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1238,286 +1593,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E4446A-C309-4FF5-A528-B60FA210E1A4}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.64880000000000004</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.77569999999999995</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <f>SQRT(0.0064)</f>
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="9">
-        <f>4.6531/100</f>
-        <v>4.6531000000000003E-2</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9">
-        <v>0.81530000000000002</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I6" s="9">
-        <f>SQRT(0.0053)</f>
-        <v>7.2801098892805186E-2</v>
-      </c>
-      <c r="J6" s="9">
-        <f>3.8508/100</f>
-        <v>3.8508000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1.4E-3</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1.8E-3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E12" s="9">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="I12" s="9">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J12" s="9">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
+++ b/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191ADE5A-55CB-400D-B0A0-4D4AFD6F039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2CFD4-8F32-496C-95F8-C0A9586D6F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Penelitian" sheetId="1" r:id="rId1"/>
-    <sheet name="M1 - normalize" sheetId="6" r:id="rId2"/>
-    <sheet name="M1 - inverse" sheetId="4" r:id="rId3"/>
+    <sheet name="M1 - inverse" sheetId="4" r:id="rId2"/>
+    <sheet name="M1 - normalize" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -261,6 +261,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -273,16 +276,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,41 +617,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -741,41 +746,41 @@
       <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -864,27 +869,27 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E19D65E-E3D2-47A9-8D21-78D2EAC94EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B99B8F-E089-4622-AC97-FA231B6CA612}">
   <dimension ref="A5:T36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,33 +908,33 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
@@ -989,81 +994,113 @@
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <v>0.6452</v>
       </c>
-      <c r="C7" s="28">
-        <v>246.12100000000001</v>
-      </c>
-      <c r="D7" s="28">
-        <v>689.80499999999995</v>
-      </c>
-      <c r="E7" s="28">
-        <v>167.86</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28">
+      <c r="C7" s="21">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H7" s="28">
-        <v>10.6457</v>
-      </c>
-      <c r="I7" s="28">
-        <v>14.077299999999999</v>
-      </c>
-      <c r="J7" s="28">
-        <v>0.46779999999999999</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28">
+      <c r="H7" s="21">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21">
         <v>0.64490000000000003</v>
       </c>
-      <c r="M7" s="28">
-        <v>257.37520000000001</v>
-      </c>
-      <c r="N7" s="28">
-        <v>711.35479999999995</v>
-      </c>
-      <c r="O7" s="28">
-        <v>153.96</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="M7" s="21">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="N7" s="21">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="O7" s="21">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
         <v>0.99990000000000001</v>
       </c>
-      <c r="R7" s="28">
-        <v>10.6457</v>
-      </c>
-      <c r="S7" s="28">
-        <v>14.077299999999999</v>
-      </c>
-      <c r="T7" s="28">
-        <v>0.46779999999999999</v>
+      <c r="R7" s="21">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S7" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="T7" s="21">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="13">
+        <v>0.6452</v>
+      </c>
+      <c r="C8" s="13">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5.6800000000000003E-2</v>
+      </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="G8" s="13">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1.5E-3</v>
+      </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="L8" s="13">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="M8" s="13">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="N8" s="13">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="O8" s="13">
+        <v>6.0199999999999997E-2</v>
+      </c>
       <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="Q8" s="13">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S8" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="T8" s="13">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
@@ -1226,11 +1263,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1238,11 +1275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B99B8F-E089-4622-AC97-FA231B6CA612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E19D65E-E3D2-47A9-8D21-78D2EAC94EE0}">
   <dimension ref="A5:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,33 +1298,33 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
@@ -1347,248 +1384,793 @@
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <v>0.6452</v>
       </c>
-      <c r="C7" s="28">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>9.5600000000000004E-2</v>
-      </c>
-      <c r="E7" s="28">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28">
+      <c r="C7" s="21">
+        <v>246.12100000000001</v>
+      </c>
+      <c r="D7" s="21">
+        <v>689.80499999999995</v>
+      </c>
+      <c r="E7" s="21">
+        <v>167.86</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H7" s="28">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I7" s="28">
-        <v>2E-3</v>
-      </c>
-      <c r="J7" s="28">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28">
+      <c r="H7" s="21">
+        <v>10.6457</v>
+      </c>
+      <c r="I7" s="21">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21">
         <v>0.64490000000000003</v>
       </c>
-      <c r="M7" s="28">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="N7" s="28">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="O7" s="28">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="M7" s="21">
+        <v>257.37520000000001</v>
+      </c>
+      <c r="N7" s="21">
+        <v>711.35479999999995</v>
+      </c>
+      <c r="O7" s="21">
+        <v>153.96</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
         <v>0.99990000000000001</v>
       </c>
-      <c r="R7" s="28">
-        <v>1.5E-3</v>
-      </c>
-      <c r="S7" s="28">
-        <v>2E-3</v>
-      </c>
-      <c r="T7" s="28">
-        <v>1.6000000000000001E-3</v>
+      <c r="R7" s="21">
+        <v>10.6457</v>
+      </c>
+      <c r="S7" s="21">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="T7" s="21">
+        <v>0.46779999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="B8" s="21">
+        <v>0.6452</v>
+      </c>
+      <c r="C8" s="21">
+        <v>246.12100000000001</v>
+      </c>
+      <c r="D8" s="21">
+        <v>689.80560000000003</v>
+      </c>
+      <c r="E8" s="21">
+        <v>167.86</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H8" s="21">
+        <v>10.306800000000001</v>
+      </c>
+      <c r="I8" s="21">
+        <v>13.6197</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="M8" s="21">
+        <v>257.37520000000001</v>
+      </c>
+      <c r="N8" s="21">
+        <v>711.35479999999995</v>
+      </c>
+      <c r="O8" s="21">
+        <v>153.96</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R8" s="21">
+        <v>10.6457</v>
+      </c>
+      <c r="S8" s="21">
+        <v>14.077299999999999</v>
+      </c>
+      <c r="T8" s="21">
+        <v>0.46779999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>3</v>
       </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>4</v>
       </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>5</v>
       </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>6</v>
       </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>7</v>
       </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>8</v>
       </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>9</v>
       </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>26</v>
       </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>27</v>
       </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>28</v>
       </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>29</v>
       </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>30</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="15"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
+++ b/2. hasil penelitian/Hasil penelitian BOPTN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2CFD4-8F32-496C-95F8-C0A9586D6F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF716BEB-C6B4-4E12-9AF3-3C07216BA567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CFED132D-30CB-42CC-838E-C709A45C7BA4}"/>
   </bookViews>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -264,6 +264,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -276,19 +277,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +603,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,41 +613,41 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -746,41 +742,41 @@
       <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -889,7 +885,7 @@
   <dimension ref="A5:T36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,39 +901,39 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
@@ -1276,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E19D65E-E3D2-47A9-8D21-78D2EAC94EE0}">
-  <dimension ref="A5:T36"/>
+  <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,39 +1291,39 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
@@ -1496,673 +1492,193 @@
       <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>6</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>8</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>9</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>10</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>11</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>12</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>13</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>14</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>15</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>16</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
-        <v>17</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>18</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
-        <v>19</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>20</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>21</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>22</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>23</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>24</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>25</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
-        <v>26</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
-        <v>27</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
-        <v>28</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
-        <v>29</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="20">
-        <v>30</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="31"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
